--- a/2561.01.30_ลุ่มต่ำ/resource/คีย์น้ำพี่เบิร์ด.xlsx
+++ b/2561.01.30_ลุ่มต่ำ/resource/คีย์น้ำพี่เบิร์ด.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="20910"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20440" windowHeight="8900" tabRatio="914" firstSheet="1" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24600" windowHeight="16500" tabRatio="914"/>
   </bookViews>
   <sheets>
     <sheet name="ปตร.บ้านกุ่ม 1" sheetId="4" r:id="rId1"/>
@@ -2003,7 +2003,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2013,11 +2013,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE38"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B17" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D40" sqref="D40"/>
+      <selection pane="bottomRight" activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="21" x14ac:dyDescent="0"/>
@@ -8890,6 +8890,66 @@
     </row>
   </sheetData>
   <mergeCells count="70">
+    <mergeCell ref="A1:AE1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="G2:K2"/>
+    <mergeCell ref="L2:P2"/>
+    <mergeCell ref="Q2:U2"/>
+    <mergeCell ref="V2:Z2"/>
+    <mergeCell ref="AA2:AE2"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="T4:U4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="T5:U5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="T6:U6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="O23:P23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="O25:P25"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="O26:P26"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="O27:P27"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="O28:P28"/>
     <mergeCell ref="J32:K32"/>
     <mergeCell ref="O32:P32"/>
     <mergeCell ref="J33:K33"/>
@@ -8900,66 +8960,6 @@
     <mergeCell ref="O30:P30"/>
     <mergeCell ref="J31:K31"/>
     <mergeCell ref="O31:P31"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="O26:P26"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="O27:P27"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="O28:P28"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="O24:P24"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="O25:P25"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="O22:P22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="O23:P23"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="O19:P19"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="O21:P21"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="O17:P17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="O12:P12"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="T4:U4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="T5:U5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="T6:U6"/>
-    <mergeCell ref="A1:AE1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="G2:K2"/>
-    <mergeCell ref="L2:P2"/>
-    <mergeCell ref="Q2:U2"/>
-    <mergeCell ref="V2:Z2"/>
-    <mergeCell ref="AA2:AE2"/>
   </mergeCells>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.19685039370078741" bottom="0.19685039370078741" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="90" orientation="landscape" verticalDpi="0"/>
@@ -8975,11 +8975,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="Q18" sqref="Q18"/>
+      <selection pane="bottomRight" activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="21" x14ac:dyDescent="0"/>
@@ -12415,17 +12415,6 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="O28:P28"/>
-    <mergeCell ref="AD28:AE28"/>
-    <mergeCell ref="O29:P29"/>
-    <mergeCell ref="O30:P30"/>
-    <mergeCell ref="O24:P24"/>
-    <mergeCell ref="T24:U24"/>
-    <mergeCell ref="O25:P25"/>
-    <mergeCell ref="O26:P26"/>
-    <mergeCell ref="AD26:AE26"/>
-    <mergeCell ref="O27:P27"/>
-    <mergeCell ref="AD27:AE27"/>
     <mergeCell ref="O23:P23"/>
     <mergeCell ref="T23:U23"/>
     <mergeCell ref="A1:AE1"/>
@@ -12441,6 +12430,17 @@
     <mergeCell ref="J22:K22"/>
     <mergeCell ref="O22:P22"/>
     <mergeCell ref="T22:U22"/>
+    <mergeCell ref="O28:P28"/>
+    <mergeCell ref="AD28:AE28"/>
+    <mergeCell ref="O29:P29"/>
+    <mergeCell ref="O30:P30"/>
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="T24:U24"/>
+    <mergeCell ref="O25:P25"/>
+    <mergeCell ref="O26:P26"/>
+    <mergeCell ref="AD26:AE26"/>
+    <mergeCell ref="O27:P27"/>
+    <mergeCell ref="AD27:AE27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -12456,15 +12456,15 @@
   <dimension ref="A1:AE38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="W18" sqref="W18"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="21" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="3.6640625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="4.83203125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="5.1640625" style="1" customWidth="1"/>
-    <col min="4" max="5" width="4.83203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="7.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.83203125" style="1" customWidth="1"/>
     <col min="6" max="6" width="2.83203125" style="1" customWidth="1"/>
     <col min="7" max="10" width="4.83203125" style="1" customWidth="1"/>
     <col min="11" max="11" width="3" style="1" customWidth="1"/>
@@ -15437,14 +15437,14 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="O28:P28"/>
-    <mergeCell ref="O31:P31"/>
-    <mergeCell ref="O22:P22"/>
-    <mergeCell ref="O23:P23"/>
-    <mergeCell ref="O24:P24"/>
-    <mergeCell ref="O25:P25"/>
-    <mergeCell ref="O26:P26"/>
-    <mergeCell ref="O27:P27"/>
+    <mergeCell ref="A1:AE1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="G2:K2"/>
+    <mergeCell ref="L2:P2"/>
+    <mergeCell ref="Q2:U2"/>
+    <mergeCell ref="V2:Z2"/>
+    <mergeCell ref="AA2:AE2"/>
     <mergeCell ref="T19:U19"/>
     <mergeCell ref="T6:U6"/>
     <mergeCell ref="T7:U7"/>
@@ -15457,14 +15457,14 @@
     <mergeCell ref="T16:U16"/>
     <mergeCell ref="T17:U17"/>
     <mergeCell ref="T18:U18"/>
-    <mergeCell ref="A1:AE1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="G2:K2"/>
-    <mergeCell ref="L2:P2"/>
-    <mergeCell ref="Q2:U2"/>
-    <mergeCell ref="V2:Z2"/>
-    <mergeCell ref="AA2:AE2"/>
+    <mergeCell ref="O28:P28"/>
+    <mergeCell ref="O31:P31"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="O23:P23"/>
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="O25:P25"/>
+    <mergeCell ref="O26:P26"/>
+    <mergeCell ref="O27:P27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -15479,8 +15479,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17:F17"/>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="AG19" sqref="AG19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="21" x14ac:dyDescent="0"/>
@@ -18884,34 +18884,6 @@
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="J16:K16"/>
     <mergeCell ref="J12:K12"/>
     <mergeCell ref="A1:AE1"/>
     <mergeCell ref="A2:A3"/>
@@ -18926,6 +18898,34 @@
     <mergeCell ref="J9:K9"/>
     <mergeCell ref="J10:K10"/>
     <mergeCell ref="J11:K11"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E29:F29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -22346,34 +22346,6 @@
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="J16:K16"/>
     <mergeCell ref="J12:K12"/>
     <mergeCell ref="A1:AE1"/>
     <mergeCell ref="A2:A3"/>
@@ -22388,6 +22360,34 @@
     <mergeCell ref="J9:K9"/>
     <mergeCell ref="J10:K10"/>
     <mergeCell ref="J11:K11"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E29:F29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -28978,7 +28978,7 @@
   <dimension ref="A1:AE39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="Y20" sqref="Y20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="21" x14ac:dyDescent="0"/>
@@ -32329,55 +32329,14 @@
     </row>
   </sheetData>
   <mergeCells count="70">
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="O31:P31"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="O32:P32"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="O33:P33"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="O28:P28"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="O29:P29"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="O30:P30"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="O25:P25"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="O26:P26"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="O27:P27"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="O23:P23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="O24:P24"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="O21:P21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="O22:P22"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="O17:P17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="O19:P19"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="O12:P12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="A1:AE1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="G2:K2"/>
+    <mergeCell ref="L2:P2"/>
+    <mergeCell ref="Q2:U2"/>
+    <mergeCell ref="V2:Z2"/>
+    <mergeCell ref="AA2:AE2"/>
     <mergeCell ref="E10:F10"/>
     <mergeCell ref="O10:P10"/>
     <mergeCell ref="E4:F4"/>
@@ -32391,14 +32350,55 @@
     <mergeCell ref="E8:F8"/>
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="O9:P9"/>
-    <mergeCell ref="A1:AE1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="G2:K2"/>
-    <mergeCell ref="L2:P2"/>
-    <mergeCell ref="Q2:U2"/>
-    <mergeCell ref="V2:Z2"/>
-    <mergeCell ref="AA2:AE2"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="O23:P23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="O25:P25"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="O26:P26"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="O27:P27"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="O28:P28"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="O29:P29"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="O30:P30"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="O31:P31"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="O32:P32"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="O33:P33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -44991,28 +44991,29 @@
   <dimension ref="A1:AE38"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B25" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B21" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B4" sqref="B4"/>
       <selection pane="topRight" activeCell="B4" sqref="B4"/>
       <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
-      <selection pane="bottomRight" activeCell="N31" sqref="N31"/>
+      <selection pane="bottomRight" activeCell="N24" sqref="N24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="21" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="3.6640625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="4.83203125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="5.1640625" style="1" customWidth="1"/>
-    <col min="4" max="5" width="4.83203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="7.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.83203125" style="1" customWidth="1"/>
     <col min="6" max="6" width="2.83203125" style="1" customWidth="1"/>
-    <col min="7" max="8" width="4.83203125" style="1" customWidth="1"/>
+    <col min="7" max="8" width="10" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.83203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="3" style="1" customWidth="1"/>
-    <col min="12" max="13" width="4.83203125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.33203125" style="1" customWidth="1"/>
-    <col min="15" max="15" width="4.83203125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="3.1640625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.6640625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="8" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="5" style="1" bestFit="1" customWidth="1"/>
     <col min="17" max="20" width="4.83203125" style="1" customWidth="1"/>
     <col min="21" max="21" width="2.6640625" style="1" customWidth="1"/>
     <col min="22" max="25" width="4.83203125" style="1" customWidth="1"/>
@@ -47980,26 +47981,6 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="O25:P25"/>
-    <mergeCell ref="O26:P26"/>
-    <mergeCell ref="O27:P27"/>
-    <mergeCell ref="O28:P28"/>
-    <mergeCell ref="O31:P31"/>
-    <mergeCell ref="T18:U18"/>
-    <mergeCell ref="T19:U19"/>
-    <mergeCell ref="O22:P22"/>
-    <mergeCell ref="O23:P23"/>
-    <mergeCell ref="O24:P24"/>
-    <mergeCell ref="T13:U13"/>
-    <mergeCell ref="T14:U14"/>
-    <mergeCell ref="T15:U15"/>
-    <mergeCell ref="T16:U16"/>
-    <mergeCell ref="T17:U17"/>
-    <mergeCell ref="T6:U6"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="T8:U8"/>
-    <mergeCell ref="T9:U9"/>
-    <mergeCell ref="T10:U10"/>
     <mergeCell ref="A1:AE1"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:F2"/>
@@ -48008,6 +47989,26 @@
     <mergeCell ref="Q2:U2"/>
     <mergeCell ref="V2:Z2"/>
     <mergeCell ref="AA2:AE2"/>
+    <mergeCell ref="T6:U6"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="T8:U8"/>
+    <mergeCell ref="T9:U9"/>
+    <mergeCell ref="T10:U10"/>
+    <mergeCell ref="T13:U13"/>
+    <mergeCell ref="T14:U14"/>
+    <mergeCell ref="T15:U15"/>
+    <mergeCell ref="T16:U16"/>
+    <mergeCell ref="T17:U17"/>
+    <mergeCell ref="T18:U18"/>
+    <mergeCell ref="T19:U19"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="O23:P23"/>
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="O25:P25"/>
+    <mergeCell ref="O26:P26"/>
+    <mergeCell ref="O27:P27"/>
+    <mergeCell ref="O28:P28"/>
+    <mergeCell ref="O31:P31"/>
   </mergeCells>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.19685039370078741" bottom="0.19685039370078741" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="90" orientation="landscape" verticalDpi="0"/>
@@ -48028,14 +48029,15 @@
       <selection activeCell="B4" sqref="B4"/>
       <selection pane="topRight" activeCell="B4" sqref="B4"/>
       <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
-      <selection pane="bottomRight" activeCell="B4" sqref="B4"/>
+      <selection pane="bottomRight" activeCell="N25" sqref="N25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="21" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="3.6640625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="4.83203125" style="2" customWidth="1"/>
-    <col min="3" max="5" width="4.83203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="4.83203125" style="1" customWidth="1"/>
     <col min="6" max="6" width="2.83203125" style="1" customWidth="1"/>
     <col min="7" max="10" width="4.83203125" style="1" customWidth="1"/>
     <col min="11" max="11" width="3" style="1" customWidth="1"/>
@@ -48043,11 +48045,17 @@
     <col min="14" max="14" width="5.83203125" style="1" customWidth="1"/>
     <col min="15" max="15" width="4.83203125" style="1" customWidth="1"/>
     <col min="16" max="16" width="3.6640625" style="1" customWidth="1"/>
-    <col min="17" max="20" width="4.83203125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="4.83203125" style="1" customWidth="1"/>
     <col min="21" max="21" width="3.5" style="1" customWidth="1"/>
-    <col min="22" max="25" width="4.83203125" style="1" customWidth="1"/>
+    <col min="22" max="22" width="4.83203125" style="1" customWidth="1"/>
+    <col min="23" max="23" width="7.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="4.83203125" style="1" customWidth="1"/>
     <col min="26" max="26" width="2.6640625" style="1" customWidth="1"/>
-    <col min="27" max="30" width="4.83203125" style="1" customWidth="1"/>
+    <col min="27" max="27" width="4.83203125" style="1" customWidth="1"/>
+    <col min="28" max="28" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="4.83203125" style="1" customWidth="1"/>
     <col min="31" max="31" width="2.6640625" style="1" customWidth="1"/>
     <col min="32" max="16384" width="8.83203125" style="1"/>
   </cols>
@@ -51432,40 +51440,6 @@
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="J11:K11"/>
     <mergeCell ref="A1:AE1"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:F2"/>
@@ -51474,6 +51448,40 @@
     <mergeCell ref="Q2:U2"/>
     <mergeCell ref="V2:Z2"/>
     <mergeCell ref="AA2:AE2"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E31:F31"/>
   </mergeCells>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.19685039370078741" bottom="0.19685039370078741" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="90" orientation="landscape" verticalDpi="0"/>
@@ -51490,7 +51498,7 @@
   <dimension ref="A1:AE38"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B24" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B4" sqref="B4"/>
       <selection pane="topRight" activeCell="B4" sqref="B4"/>
       <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
